--- a/OperazioneSanSilvestro/decoder.xlsx
+++ b/OperazioneSanSilvestro/decoder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PoliTo\SDI\Laboratori\LaboratoriSDI\OperazioneSanSilvestro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70746E8E-6859-423C-8F01-727297CB2A39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4DDEE6-8549-4B55-8226-4936EA361B05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C19EF36-42B0-4CC7-9733-6604E177C732}"/>
   </bookViews>
@@ -404,7 +404,7 @@
   <dimension ref="A1:AR18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AK5" sqref="AK5"/>
+      <selection activeCell="AN7" sqref="AN7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -958,13 +958,13 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN6">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN7">
         <v>0</v>
